--- a/material/checklist.xlsx
+++ b/material/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsukotominaga/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsukotominaga/OneDrive - Central European University/Project/expertpiano/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90E843A-56CA-8B43-A7F4-A9AE528DF77F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{F90E843A-56CA-8B43-A7F4-A9AE528DF77F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{28EB3B97-B431-C542-A88F-E1A697719A81}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{C917B558-B333-FB4B-9C04-DABD109D3B9A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$43:$L$63</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>SubNr</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Consent form</t>
+  </si>
+  <si>
+    <t>Checklist - 27/01/2019</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -907,11 +910,771 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
+    <row r="22" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3">
+        <v>16</v>
+      </c>
+      <c r="I23" s="3">
+        <v>17</v>
+      </c>
+      <c r="J23" s="3">
+        <v>18</v>
+      </c>
+      <c r="K23" s="3">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>10</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>13</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>14</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>21</v>
+      </c>
+      <c r="D44" s="3">
+        <v>22</v>
+      </c>
+      <c r="E44" s="3">
+        <v>23</v>
+      </c>
+      <c r="F44" s="3">
+        <v>24</v>
+      </c>
+      <c r="G44" s="3">
+        <v>25</v>
+      </c>
+      <c r="H44" s="3">
+        <v>26</v>
+      </c>
+      <c r="I44" s="3">
+        <v>27</v>
+      </c>
+      <c r="J44" s="3">
+        <v>28</v>
+      </c>
+      <c r="K44" s="3">
+        <v>29</v>
+      </c>
+      <c r="L44" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>4</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>11</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>12</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>13</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>14</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>15</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>16</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A61:L61"/>
     <mergeCell ref="A12:L12"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A33:L33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/material/checklist.xlsx
+++ b/material/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsukotominaga/OneDrive - Central European University/Project/expertpiano/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{F90E843A-56CA-8B43-A7F4-A9AE528DF77F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{28EB3B97-B431-C542-A88F-E1A697719A81}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{F90E843A-56CA-8B43-A7F4-A9AE528DF77F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{66323409-7107-B146-BAEA-57F258E1354B}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{C917B558-B333-FB4B-9C04-DABD109D3B9A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$43:$L$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$64:$L$85</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
   <si>
     <t>SubNr</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Checklist - 27/01/2019</t>
+  </si>
+  <si>
+    <t>Checklist - 03/03/2019</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1664,17 +1667,397 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
+    <row r="64" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>31</v>
+      </c>
+      <c r="D65" s="3">
+        <v>32</v>
+      </c>
+      <c r="E65" s="3">
+        <v>33</v>
+      </c>
+      <c r="F65" s="3">
+        <v>34</v>
+      </c>
+      <c r="G65" s="3">
+        <v>35</v>
+      </c>
+      <c r="H65" s="3">
+        <v>36</v>
+      </c>
+      <c r="I65" s="3">
+        <v>37</v>
+      </c>
+      <c r="J65" s="3">
+        <v>38</v>
+      </c>
+      <c r="K65" s="3">
+        <v>39</v>
+      </c>
+      <c r="L65" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>4</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>5</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>6</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>7</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>10</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>11</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>12</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>13</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>14</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>15</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>16</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A68:L68"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="A47:L47"/>
     <mergeCell ref="A54:L54"/>
     <mergeCell ref="A61:L61"/>
     <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A33:L33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/material/checklist.xlsx
+++ b/material/checklist.xlsx
@@ -1,41 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsukotominaga/OneDrive - Central European University/Project/teaching-v2.0/material/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_B3491598ED3EE701DFE077DD896C15A3D9C43792" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7AC8B62E-539D-174C-8C64-3C55AEC9BFDB}"/>
   <bookViews>
-    <workbookView xWindow="18880" yWindow="8780" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3180" yWindow="3720" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$64:$L$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$65:$L$84</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
   <si>
     <t>SubNr</t>
-  </si>
-  <si>
-    <t>Record practice (stim_n)</t>
   </si>
   <si>
     <t>Record first stimulus</t>
@@ -80,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -260,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -312,7 +310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -506,36 +504,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31">
+    <row r="1" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -571,12 +569,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -589,12 +587,12 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -607,9 +605,9 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -623,12 +621,12 @@
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -641,12 +639,12 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -659,12 +657,12 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -677,12 +675,12 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -695,12 +693,12 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -713,12 +711,12 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -731,9 +729,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -747,12 +745,12 @@
       <c r="K12" s="6"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -765,12 +763,12 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -783,12 +781,12 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -801,12 +799,12 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -819,12 +817,12 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -837,12 +835,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -855,9 +853,9 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -871,12 +869,12 @@
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -889,12 +887,12 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -907,10 +905,10 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="31">
+    <row r="22" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>0</v>
@@ -946,12 +944,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -964,12 +962,12 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -982,9 +980,9 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -998,12 +996,12 @@
       <c r="K26" s="6"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1016,12 +1014,12 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1034,12 +1032,12 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1052,12 +1050,12 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1070,12 +1068,12 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1088,12 +1086,12 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1106,9 +1104,9 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1122,12 +1120,12 @@
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>9</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1140,12 +1138,12 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1158,12 +1156,12 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1176,12 +1174,12 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1194,12 +1192,12 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1212,12 +1210,12 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1230,9 +1228,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1246,12 +1244,12 @@
       <c r="K40" s="6"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1264,12 +1262,12 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1282,10 +1280,10 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="31">
+    <row r="43" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>0</v>
@@ -1321,12 +1319,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1339,12 +1337,12 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1357,9 +1355,9 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1373,12 +1371,12 @@
       <c r="K47" s="6"/>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1391,12 +1389,12 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>4</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1409,12 +1407,12 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1427,12 +1425,12 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>6</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1445,12 +1443,12 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>7</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1463,12 +1461,12 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>8</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1481,9 +1479,9 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1497,12 +1495,12 @@
       <c r="K54" s="6"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>9</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1515,12 +1513,12 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>10</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1533,12 +1531,12 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>11</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1551,12 +1549,12 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>12</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1569,12 +1567,12 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>13</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1587,12 +1585,12 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>14</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1605,9 +1603,9 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1621,12 +1619,12 @@
       <c r="K61" s="6"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1639,12 +1637,12 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>16</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1657,10 +1655,10 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" ht="31">
+    <row r="64" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>0</v>
@@ -1696,12 +1694,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>1</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1714,12 +1712,12 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -1732,9 +1730,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1748,12 +1746,12 @@
       <c r="K68" s="6"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1766,12 +1764,12 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>4</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1784,12 +1782,12 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -1802,12 +1800,12 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>6</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -1820,12 +1818,12 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>7</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -1838,12 +1836,12 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>8</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -1856,9 +1854,9 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -1872,12 +1870,12 @@
       <c r="K75" s="6"/>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>9</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -1890,12 +1888,12 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -1908,12 +1906,12 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>11</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -1926,12 +1924,12 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>12</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -1944,12 +1942,12 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>13</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -1962,12 +1960,12 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>14</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -1980,9 +1978,9 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1996,12 +1994,12 @@
       <c r="K82" s="6"/>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>15</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2014,12 +2012,12 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>16</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
